--- a/Reports/heart/heart_tabfairgan_50_02.xlsx
+++ b/Reports/heart/heart_tabfairgan_50_02.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0504</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0143</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9728</v>
+        <v>1.2117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0549</v>
+        <v>0.9968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0472</v>
+        <v>-0.1451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.0831</v>
+        <v>0.7446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.1722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.1274</v>
+        <v>1.2952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0329</v>
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0004</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6728</v>
+        <v>0.6173999999999999</v>
       </c>
     </row>
     <row r="13">
